--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -177,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -198,9 +198,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,38 +251,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,8 +297,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -268,75 +321,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,187 +357,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,15 +577,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -605,7 +596,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,21 +641,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -663,16 +654,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,133 +681,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1170,13 +1170,13 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7" style="2" customWidth="1"/>
     <col min="3" max="3" width="53.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -31,9 +31,15 @@
     <t>出售价格</t>
   </si>
   <si>
+    <t>品质</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t>一种普通的建筑石材，山里面多得很</t>
   </si>
   <si>
+    <t>普通</t>
+  </si>
+  <si>
     <t>乌木</t>
   </si>
   <si>
@@ -70,6 +79,9 @@
     <t>盖房子的高级石料，从远处看起来很像云朵</t>
   </si>
   <si>
+    <t>高级</t>
+  </si>
+  <si>
     <t>银木</t>
   </si>
   <si>
@@ -92,6 +104,9 @@
   </si>
   <si>
     <t>银木上一种特殊的叶子，非常稀有</t>
+  </si>
+  <si>
+    <t>稀有</t>
   </si>
   <si>
     <t>云晶</t>
@@ -177,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -214,9 +229,116 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,114 +351,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,13 +372,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,169 +546,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,17 +581,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -594,9 +598,53 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,184 +678,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1165,24 +1180,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="7" style="2" customWidth="1"/>
-    <col min="3" max="3" width="53.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="50.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1195,327 +1210,396 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2">
+        <v>300</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>300</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>80</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2">
         <v>2500</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>150</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>150</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>150</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D20" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D21" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>800</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>800</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D23" s="2">
         <v>2500</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D24" s="2">
         <v>2500</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -61,7 +61,7 @@
     <t>青岩</t>
   </si>
   <si>
-    <t>一种普通的建筑石材，山里面多得很</t>
+    <t>一种普通的建筑石材，山里面多得很。</t>
   </si>
   <si>
     <t>普通</t>
@@ -70,13 +70,13 @@
     <t>乌木</t>
   </si>
   <si>
-    <t>盖房子必不可少的木材，生长很快</t>
+    <t>盖房子必不可少的木材，生长很快。</t>
   </si>
   <si>
     <t>云岩</t>
   </si>
   <si>
-    <t>盖房子的高级石料，从远处看起来很像云朵</t>
+    <t>盖房子的高级石料，从远处看起来很像云朵。</t>
   </si>
   <si>
     <t>高级</t>
@@ -85,25 +85,25 @@
     <t>银木</t>
   </si>
   <si>
-    <t>这种木材又硬又漂亮，据说皇宫都是用它造的</t>
+    <t>这种木材又硬又漂亮，据说皇宫都是用它造的。</t>
   </si>
   <si>
     <t>紫藤</t>
   </si>
   <si>
-    <t>长在悬崖峭壁上的藤，既轻便又有韧性，做铠甲正合适</t>
+    <t>长在悬崖峭壁上的藤，既轻便又有韧性，做铠甲正合适。</t>
   </si>
   <si>
     <t>黑铁</t>
   </si>
   <si>
-    <t>这种铁石挖出来就是黑乎乎的，可以打造各种工具</t>
+    <t>这种铁石挖出来就是黑乎乎的，可以打造各种工具。</t>
   </si>
   <si>
     <t>银叶</t>
   </si>
   <si>
-    <t>银木上一种特殊的叶子，非常稀有</t>
+    <t>银木上一种特殊的叶子，非常稀有。</t>
   </si>
   <si>
     <t>稀有</t>
@@ -112,79 +112,91 @@
     <t>云晶</t>
   </si>
   <si>
-    <t>采挖云岩的时候有可能会找到它</t>
+    <t>采挖云岩的时候有可能会找到它。</t>
   </si>
   <si>
     <t>肉</t>
   </si>
   <si>
-    <t>师娘最擅长用肉做狮子头了，贼好吃</t>
+    <t>师娘最擅长用肉做狮子头了，贼好吃。</t>
   </si>
   <si>
     <t>莲藕</t>
   </si>
   <si>
-    <t>有人喜欢吃有人不喜欢，看各人口味吧</t>
+    <t>有人喜欢吃有人不喜欢，看各人口味吧。</t>
   </si>
   <si>
     <t>熊掌</t>
   </si>
   <si>
-    <t>我地乖乖，这玩意儿一般人可吃不着</t>
+    <t>我地乖乖，这玩意儿一般人可吃不着。</t>
   </si>
   <si>
     <t>鱼</t>
   </si>
   <si>
-    <t>莲花池里的鱼特别好吃，肉质细嫩还没有刺</t>
+    <t>莲花池里的鱼特别好吃，肉质细嫩还没有刺。</t>
   </si>
   <si>
     <t>荷叶</t>
   </si>
   <si>
-    <t>这玩意儿本来没什么用，直到有人发明了叫花鸡</t>
+    <t>这玩意儿本来没什么用，直到有人发明了叫花鸡。</t>
   </si>
   <si>
     <t>鸡</t>
   </si>
   <si>
-    <t>咱们庄上的鸡都是散养的，肉质特别赞</t>
+    <t>咱们庄上的鸡都是散养的，肉质特别赞。</t>
   </si>
   <si>
     <t>蛇胆</t>
   </si>
   <si>
-    <t>这可是好东西，可以增强免疫系统，提升功力</t>
+    <t>这可是好东西，可以增强免疫系统，提升功力。</t>
   </si>
   <si>
     <t>蜂王浆</t>
   </si>
   <si>
-    <t>就在池塘边那棵槐树上采的，绝对正宗</t>
+    <t>就在池塘边那棵槐树上采的，绝对正宗。</t>
   </si>
   <si>
     <t>莲花</t>
   </si>
   <si>
-    <t>出淤泥而不染，濯清涟而不妖，好看</t>
+    <t>出淤泥而不染，濯清涟而不妖，好看。</t>
   </si>
   <si>
     <t>古井水</t>
   </si>
   <si>
-    <t>后院里古井打上来的水，据说喝了可以明目醒脑</t>
+    <t>后院里古井打上来的水，据说喝了可以明目醒脑。</t>
   </si>
   <si>
     <t>鹿茸</t>
   </si>
   <si>
-    <t>我爹最喜欢用它泡酒，补气壮阳</t>
+    <t>我爹最喜欢用它泡酒，补气壮阳。</t>
   </si>
   <si>
     <t>灵芝</t>
   </si>
   <si>
-    <t>野生灵芝是上等的药材，可以用来炼制还魂丹</t>
+    <t>野生灵芝是上等的药材，可以用来炼制还魂丹。</t>
+  </si>
+  <si>
+    <t>蜂针</t>
+  </si>
+  <si>
+    <t>金蜂尾部的毒针，采蜜的时候有可能找到它。</t>
+  </si>
+  <si>
+    <t>毒牙</t>
+  </si>
+  <si>
+    <t>毒蛇的獠牙，打蛇的时候或许能得到它。</t>
   </si>
 </sst>
 </file>
@@ -192,8 +204,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -220,8 +232,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,6 +353,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -242,120 +368,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -372,187 +384,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,21 +593,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -603,48 +600,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,16 +633,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,133 +708,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1180,12 +1192,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1511,10 +1523,10 @@
         <v>45</v>
       </c>
       <c r="D19" s="2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1599,6 +1611,40 @@
         <v>2500</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,15 @@
     <t>名称</t>
   </si>
   <si>
+    <t>品质</t>
+  </si>
+  <si>
     <t>说明</t>
   </si>
   <si>
     <t>出售价格</t>
   </si>
   <si>
-    <t>品质</t>
-  </si>
-  <si>
     <t>解锁等级</t>
   </si>
   <si>
@@ -73,12 +73,12 @@
     <t>青岩</t>
   </si>
   <si>
+    <t>普通</t>
+  </si>
+  <si>
     <t>一种普通的建筑石材，山里面多得很。</t>
   </si>
   <si>
-    <t>普通</t>
-  </si>
-  <si>
     <t>WuWood</t>
   </si>
   <si>
@@ -94,12 +94,12 @@
     <t>云岩</t>
   </si>
   <si>
+    <t>高级</t>
+  </si>
+  <si>
     <t>盖房子的高级石料，从远处看起来很像云朵。</t>
   </si>
   <si>
-    <t>高级</t>
-  </si>
-  <si>
     <t>SilverWood</t>
   </si>
   <si>
@@ -133,10 +133,10 @@
     <t>银叶</t>
   </si>
   <si>
+    <t>稀有</t>
+  </si>
+  <si>
     <t>银木上一种特殊的叶子，非常稀有。</t>
-  </si>
-  <si>
-    <t>稀有</t>
   </si>
   <si>
     <t>CloudStone</t>
@@ -297,10 +297,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -318,8 +318,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,61 +357,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,36 +373,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -446,11 +400,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -461,6 +423,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -477,31 +477,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,13 +627,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,133 +657,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,6 +710,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -725,11 +743,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,21 +773,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -774,25 +783,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -801,133 +801,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1290,7 +1290,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1298,10 +1298,9 @@
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="52.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="7.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="52.5" style="2" customWidth="1"/>
+    <col min="6" max="8" width="7.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1342,13 +1341,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -1357,7 +1356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1367,24 +1366,24 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1401,11 +1400,11 @@
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2">
         <v>50</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -1425,13 +1424,13 @@
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>50</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -1453,11 +1452,11 @@
       <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2">
         <v>500</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
@@ -1477,13 +1476,13 @@
         <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>500</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="G8" s="2">
         <v>3</v>
@@ -1503,13 +1502,13 @@
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>300</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="G9" s="2">
         <v>4</v>
@@ -1529,13 +1528,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>300</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="G10" s="2">
         <v>2</v>
@@ -1557,11 +1556,11 @@
       <c r="D11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2">
         <v>2000</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="G11" s="2">
         <v>3</v>
@@ -1581,13 +1580,13 @@
         <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>2000</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
@@ -1607,13 +1606,13 @@
         <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>80</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G13" s="2">
         <v>2</v>
@@ -1633,13 +1632,13 @@
         <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>80</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G14" s="2">
         <v>2</v>
@@ -1659,13 +1658,13 @@
         <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>2500</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="G15" s="2">
         <v>3</v>
@@ -1685,13 +1684,13 @@
         <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>150</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G16" s="2">
         <v>3</v>
@@ -1711,13 +1710,13 @@
         <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>150</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G17" s="2">
         <v>4</v>
@@ -1737,13 +1736,13 @@
         <v>59</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>150</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G18" s="2">
         <v>4</v>
@@ -1763,13 +1762,13 @@
         <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>1000</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="G19" s="2">
         <v>3</v>
@@ -1789,13 +1788,13 @@
         <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>1000</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="G20" s="2">
         <v>3</v>
@@ -1815,13 +1814,13 @@
         <v>68</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>800</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="G21" s="2">
         <v>3</v>
@@ -1841,13 +1840,13 @@
         <v>71</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>800</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="G22" s="2">
         <v>3</v>
@@ -1867,13 +1866,13 @@
         <v>74</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>2500</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="G23" s="2">
         <v>4</v>
@@ -1893,13 +1892,13 @@
         <v>77</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>2500</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="G24" s="2">
         <v>4</v>
@@ -1919,13 +1918,13 @@
         <v>80</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="2">
         <v>2500</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="G25" s="2">
         <v>6</v>
@@ -1945,13 +1944,13 @@
         <v>83</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>2500</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="G26" s="2">
         <v>6</v>
@@ -1971,13 +1970,13 @@
         <v>86</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>3000</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -1997,13 +1996,13 @@
         <v>89</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>5000</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -2013,7 +2012,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:D15">
+  <sortState ref="A3:E15">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -299,8 +299,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -319,6 +319,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -326,24 +334,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,22 +357,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,7 +379,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,25 +409,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,7 +448,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,19 +477,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,138 +621,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -651,13 +651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,7 +690,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,39 +730,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,6 +766,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -789,10 +789,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -801,133 +801,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1290,7 +1290,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -290,6 +290,33 @@
   </si>
   <si>
     <t>金牌招募令当然就是金的招募令。</t>
+  </si>
+  <si>
+    <t>Malachite</t>
+  </si>
+  <si>
+    <t>孔雀石</t>
+  </si>
+  <si>
+    <t>孔雀石从孔雀山中采掘而来，用于打磨装备可提升韧性。</t>
+  </si>
+  <si>
+    <t>Agate</t>
+  </si>
+  <si>
+    <t>红玛瑙</t>
+  </si>
+  <si>
+    <t>红玛瑙乃西域奇石，可嵌于装备之中提升威力。</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>紫龙晶</t>
+  </si>
+  <si>
+    <t>紫龙晶生长于天山池中，每三年可出一尺，可附魔于装备。</t>
   </si>
 </sst>
 </file>
@@ -299,8 +326,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -318,6 +345,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -327,25 +370,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,7 +385,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -379,7 +415,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,30 +452,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,6 +467,13 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -439,28 +488,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -489,37 +516,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,133 +678,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,24 +713,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -715,6 +724,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,6 +752,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -745,6 +783,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,36 +810,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -801,133 +828,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1285,12 +1312,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1299,7 +1326,7 @@
     <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="5.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="52.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="54.625" style="2" customWidth="1"/>
     <col min="6" max="8" width="7.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
@@ -2008,6 +2035,84 @@
         <v>1</v>
       </c>
       <c r="H28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2">
+        <v>3001</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2">
+        <v>3002</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2">
+        <v>3003</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="25770" windowHeight="13880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -318,96 +318,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -426,7 +336,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,6 +370,73 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -495,169 +495,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,15 +686,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -710,11 +701,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,6 +721,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,21 +745,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,6 +766,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -789,145 +789,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1290,21 +1290,21 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6272727272727" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.8727272727273" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.12727272727273" style="2" customWidth="1"/>
     <col min="5" max="5" width="52.5" style="2" customWidth="1"/>
-    <col min="6" max="8" width="7.375" style="2" customWidth="1"/>
+    <col min="6" max="8" width="7.37272727272727" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -307,7 +307,7 @@
     <t>红玛瑙</t>
   </si>
   <si>
-    <t>红玛瑙乃西域奇石，可嵌于装备之中提升威力。</t>
+    <t>红玛瑙乃西域奇石，可嵌于装备之中提升功力。</t>
   </si>
   <si>
     <t>Crystal</t>
@@ -316,7 +316,25 @@
     <t>紫龙晶</t>
   </si>
   <si>
-    <t>紫龙晶生长于天山池中，每三年可出一尺，可附魔于装备。</t>
+    <t>紫龙晶生长于龙穴中，每三年可出一尺，可附于装备上提升威力。</t>
+  </si>
+  <si>
+    <t>GoldenThread</t>
+  </si>
+  <si>
+    <t>金丝</t>
+  </si>
+  <si>
+    <t>九十九位大师级工匠，以纯金打造，乃上乘宝物。</t>
+  </si>
+  <si>
+    <t>DragonScales</t>
+  </si>
+  <si>
+    <t>龙鳞</t>
+  </si>
+  <si>
+    <t>传闻古时有九龙争斗于苍穹，散落龙鳞下凡，乃稀世珍宝也。</t>
   </si>
 </sst>
 </file>
@@ -324,9 +342,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -343,14 +361,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -370,7 +380,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -386,17 +396,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,13 +417,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -430,14 +425,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,7 +456,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,6 +470,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -481,9 +500,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,31 +522,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,13 +684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,133 +696,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,17 +731,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,7 +744,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,22 +764,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,9 +796,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,16 +819,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -828,133 +846,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1312,18 +1330,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="5.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="54.625" style="2" customWidth="1"/>
@@ -2116,6 +2134,58 @@
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2">
+        <v>3101</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="2">
+        <v>8000</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2">
+        <v>3102</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="2">
+        <v>8000</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A3:E15">
     <sortCondition ref="A5"/>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="17860" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>ID</t>
   </si>
@@ -28,6 +28,9 @@
     <t>名称</t>
   </si>
   <si>
+    <t>icon名</t>
+  </si>
+  <si>
     <t>品质</t>
   </si>
   <si>
@@ -61,13 +64,16 @@
     <t>Name</t>
   </si>
   <si>
+    <t>IconName</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
     <t>Price</t>
   </si>
   <si>
-    <t>QingRock</t>
+    <t>cyanrock</t>
   </si>
   <si>
     <t>青岩</t>
@@ -79,7 +85,7 @@
     <t>一种普通的建筑石材，山里面多得很。</t>
   </si>
   <si>
-    <t>WuWood</t>
+    <t>blackwood</t>
   </si>
   <si>
     <t>乌木</t>
@@ -88,7 +94,7 @@
     <t>盖房子必不可少的木材，生长很快。</t>
   </si>
   <si>
-    <t>CloudRock</t>
+    <t>moirerock</t>
   </si>
   <si>
     <t>云岩</t>
@@ -100,7 +106,7 @@
     <t>盖房子的高级石料，从远处看起来很像云朵。</t>
   </si>
   <si>
-    <t>SilverWood</t>
+    <t>silverwood</t>
   </si>
   <si>
     <t>银木</t>
@@ -109,7 +115,7 @@
     <t>这种木材又硬又漂亮，据说皇宫都是用它造的。</t>
   </si>
   <si>
-    <t>Vine</t>
+    <t>wisteria</t>
   </si>
   <si>
     <t>紫藤</t>
@@ -118,7 +124,7 @@
     <t>长在悬崖峭壁上的藤，既轻便又有韧性，做铠甲正合适。</t>
   </si>
   <si>
-    <t>Iron</t>
+    <t>iron</t>
   </si>
   <si>
     <t>黑铁</t>
@@ -127,7 +133,7 @@
     <t>这种铁石挖出来就是黑乎乎的，可以打造各种工具。</t>
   </si>
   <si>
-    <t>SilverLeaf</t>
+    <t>silverleaf</t>
   </si>
   <si>
     <t>银叶</t>
@@ -139,7 +145,7 @@
     <t>银木上一种特殊的叶子，非常稀有。</t>
   </si>
   <si>
-    <t>CloudStone</t>
+    <t>moirecrystal</t>
   </si>
   <si>
     <t>云晶</t>
@@ -148,7 +154,7 @@
     <t>采挖云岩的时候有可能会找到它。</t>
   </si>
   <si>
-    <t>Meat</t>
+    <t>pork</t>
   </si>
   <si>
     <t>肉</t>
@@ -157,7 +163,7 @@
     <t>师娘最擅长用肉做狮子头了，贼好吃。</t>
   </si>
   <si>
-    <t>LotusRoot</t>
+    <t>lotusroot</t>
   </si>
   <si>
     <t>莲藕</t>
@@ -166,7 +172,7 @@
     <t>有人喜欢吃有人不喜欢，看各人口味吧。</t>
   </si>
   <si>
-    <t>BearPaw</t>
+    <t>bearspaw</t>
   </si>
   <si>
     <t>熊掌</t>
@@ -175,7 +181,7 @@
     <t>我滴乖乖，这玩意儿一般人可吃不着。</t>
   </si>
   <si>
-    <t>Fish</t>
+    <t>fish</t>
   </si>
   <si>
     <t>鱼</t>
@@ -184,7 +190,7 @@
     <t>莲花池里的鱼特别好吃，肉质细嫩还没有刺。</t>
   </si>
   <si>
-    <t>LotusLeaf</t>
+    <t>lotusleaf</t>
   </si>
   <si>
     <t>荷叶</t>
@@ -193,7 +199,7 @@
     <t>这玩意儿本来没什么用，直到有人发明了叫花鸡。</t>
   </si>
   <si>
-    <t>Chicken</t>
+    <t>chicken</t>
   </si>
   <si>
     <t>鸡</t>
@@ -202,7 +208,7 @@
     <t>咱们庄上的鸡都是散养的，肉质特别赞。</t>
   </si>
   <si>
-    <t>SnakeGB</t>
+    <t>snakegall</t>
   </si>
   <si>
     <t>蛇胆</t>
@@ -211,7 +217,7 @@
     <t>这可是好东西，可以增强免疫系统，提升功力。</t>
   </si>
   <si>
-    <t>Honey</t>
+    <t>royaljelly</t>
   </si>
   <si>
     <t>蜂王浆</t>
@@ -220,7 +226,7 @@
     <t>就在池塘边那棵槐树上的蜂窝里采的，绝对正宗。</t>
   </si>
   <si>
-    <t>Lotus</t>
+    <t>lotus</t>
   </si>
   <si>
     <t>莲花</t>
@@ -229,7 +235,7 @@
     <t>出淤泥而不染，濯清涟而不妖，好看。</t>
   </si>
   <si>
-    <t>WellWater</t>
+    <t>wellwater</t>
   </si>
   <si>
     <t>古井水</t>
@@ -238,7 +244,7 @@
     <t>后院里古井打上来的水，据说喝了可以明目醒脑。</t>
   </si>
   <si>
-    <t>DeerHorn</t>
+    <t>antier</t>
   </si>
   <si>
     <t>鹿茸</t>
@@ -247,7 +253,7 @@
     <t>我爹最喜欢用它泡酒，补气壮阳。</t>
   </si>
   <si>
-    <t>Ganoderma</t>
+    <t>lingzhi</t>
   </si>
   <si>
     <t>灵芝</t>
@@ -256,7 +262,7 @@
     <t>野生灵芝是上等的药材，可以用来炼制还魂丹。</t>
   </si>
   <si>
-    <t>BeeThorn</t>
+    <t>beeneedle</t>
   </si>
   <si>
     <t>蜂针</t>
@@ -265,7 +271,7 @@
     <t>金蜂尾部的毒针，采蜜的时候有可能找到它。</t>
   </si>
   <si>
-    <t>SnakeTeeth</t>
+    <t>poisonfang</t>
   </si>
   <si>
     <t>毒牙</t>
@@ -274,7 +280,7 @@
     <t>毒蛇的獠牙，打蛇的时候或许能得到它。</t>
   </si>
   <si>
-    <t>SilverToken</t>
+    <t>SilverOlder</t>
   </si>
   <si>
     <t>银牌招募令</t>
@@ -283,7 +289,7 @@
     <t>银牌招募令当然就是银的招募令。</t>
   </si>
   <si>
-    <t>GoldenToken</t>
+    <t>GoldOlder</t>
   </si>
   <si>
     <t>金牌招募令</t>
@@ -342,9 +348,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -363,14 +369,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -379,38 +377,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,6 +394,35 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,15 +445,61 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,43 +512,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -522,19 +528,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,19 +588,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,139 +702,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,30 +746,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -780,27 +762,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,9 +793,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,10 +840,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -849,130 +855,130 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1330,26 +1336,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="54.625" style="2" customWidth="1"/>
-    <col min="6" max="8" width="7.375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.7545454545455" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.8727272727273" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.12727272727273" style="2" customWidth="1"/>
+    <col min="6" max="6" width="54.6272727272727" style="2" customWidth="1"/>
+    <col min="7" max="9" width="7.37272727272727" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1374,820 +1380,904 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:6">
+    </row>
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2">
         <v>50</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2">
         <v>50</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2">
         <v>500</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2">
         <v>500</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2">
         <v>300</v>
-      </c>
-      <c r="G9" s="2">
-        <v>4</v>
       </c>
       <c r="H9" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="2">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="2">
         <v>300</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2</v>
       </c>
       <c r="H10" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="2">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2">
         <v>2000</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3</v>
       </c>
       <c r="H11" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="2">
         <v>2000</v>
-      </c>
-      <c r="G12" s="2">
-        <v>3</v>
       </c>
       <c r="H12" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="2">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="2">
         <v>80</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2</v>
       </c>
       <c r="H13" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="2">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="2">
         <v>80</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2</v>
       </c>
       <c r="H14" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>1011</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="2">
+        <v>40</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="2">
         <v>2500</v>
-      </c>
-      <c r="G15" s="2">
-        <v>3</v>
       </c>
       <c r="H15" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>1012</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="2">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="2">
         <v>150</v>
-      </c>
-      <c r="G16" s="2">
-        <v>3</v>
       </c>
       <c r="H16" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>1013</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="2">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="2">
         <v>150</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>4</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>1014</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="2">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="2">
         <v>150</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>4</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>1015</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="2">
+        <v>27</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="2">
         <v>1000</v>
-      </c>
-      <c r="G19" s="2">
-        <v>3</v>
       </c>
       <c r="H19" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>1016</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="2">
+        <v>27</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="2">
         <v>1000</v>
-      </c>
-      <c r="G20" s="2">
-        <v>3</v>
       </c>
       <c r="H20" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <v>1017</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="2">
+        <v>27</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="2">
         <v>800</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>3</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>1018</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="2">
+        <v>27</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="2">
         <v>800</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>3</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <v>1019</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="2">
+        <v>40</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="2">
         <v>2500</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>4</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>1020</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="2">
+        <v>40</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="2">
         <v>2500</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>4</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
         <v>1021</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="2">
+        <v>40</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="2">
         <v>2500</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>6</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <v>1022</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="2">
+        <v>40</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="2">
         <v>2500</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>6</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
         <v>2001</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="2">
+        <v>40</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="2">
         <v>3000</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1</v>
       </c>
       <c r="H27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
         <v>2002</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="2">
+        <v>40</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="2">
         <v>5000</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1</v>
       </c>
       <c r="H28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="2">
         <v>3001</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="2">
+        <v>27</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="2">
         <v>2000</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="2">
         <v>3002</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="2">
+        <v>40</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="2">
         <v>3000</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="2">
         <v>3003</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="2">
+        <v>40</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="2">
         <v>5000</v>
-      </c>
-      <c r="G31" s="2">
-        <v>1</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="2">
         <v>3101</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="2">
+        <v>40</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="2">
         <v>8000</v>
-      </c>
-      <c r="G32" s="2">
-        <v>1</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="2">
         <v>3102</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="2">
+        <v>40</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="2">
         <v>8000</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1</v>
       </c>
       <c r="H33" s="2">
         <v>1</v>
       </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:E15">
+  <sortState ref="A3:F15">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17860" windowHeight="11540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="108">
   <si>
     <t>ID</t>
   </si>
@@ -348,9 +348,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -369,11 +369,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,7 +415,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,51 +459,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -458,16 +466,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -490,23 +490,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -528,6 +528,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -540,85 +582,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,85 +702,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,15 +737,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -757,6 +748,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,17 +815,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,49 +834,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,133 +852,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1341,21 +1341,21 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.7545454545455" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.8727272727273" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.12727272727273" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54.6272727272727" style="2" customWidth="1"/>
-    <col min="7" max="9" width="7.37272727272727" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.7583333333333" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="54.625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="7.375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="17860" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>ID</t>
   </si>
@@ -348,9 +348,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -369,33 +369,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,38 +393,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,6 +406,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -466,8 +458,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -490,23 +490,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -528,187 +528,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,6 +737,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -748,6 +757,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,50 +791,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,11 +813,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,10 +840,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,19 +852,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,112 +873,112 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1341,21 +1341,21 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.7583333333333" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54.625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="7.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.7545454545455" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.8727272727273" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.12727272727273" style="2" customWidth="1"/>
+    <col min="6" max="6" width="54.6272727272727" style="2" customWidth="1"/>
+    <col min="7" max="9" width="7.37272727272727" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17860" windowHeight="11540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="108">
   <si>
     <t>ID</t>
   </si>
@@ -304,7 +304,7 @@
     <t>孔雀石</t>
   </si>
   <si>
-    <t>孔雀石从孔雀山中采掘而来，用于打磨装备可提升韧性。</t>
+    <t>从孔雀山中采掘而来，用于打磨装备可提升韧性。</t>
   </si>
   <si>
     <t>Agate</t>
@@ -313,7 +313,7 @@
     <t>红玛瑙</t>
   </si>
   <si>
-    <t>红玛瑙乃西域奇石，可嵌于装备之中提升功力。</t>
+    <t>不可多得的西域奇石，可嵌于装备之中提升功力。</t>
   </si>
   <si>
     <t>Crystal</t>
@@ -322,7 +322,7 @@
     <t>紫龙晶</t>
   </si>
   <si>
-    <t>紫龙晶生长于龙穴中，每三年可出一尺，可附于装备上提升威力。</t>
+    <t>生长于龙穴中，每三年可长一尺，可附于装备上提升威力。</t>
   </si>
   <si>
     <t>GoldenThread</t>
@@ -331,7 +331,7 @@
     <t>金丝</t>
   </si>
   <si>
-    <t>九十九位大师级工匠，以纯金打造，乃上乘宝物。</t>
+    <t>集齐九位大师级工匠，以纯金打造，乃上乘宝物。</t>
   </si>
   <si>
     <t>DragonScales</t>
@@ -349,8 +349,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -371,9 +371,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,7 +408,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,32 +453,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,16 +467,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,6 +498,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -473,45 +512,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -528,13 +528,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,37 +606,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,13 +678,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,109 +696,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,6 +733,36 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,36 +791,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -798,15 +798,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,16 +825,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,133 +852,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1341,21 +1341,21 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.7545454545455" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.8727272727273" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.12727272727273" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54.6272727272727" style="2" customWidth="1"/>
-    <col min="7" max="9" width="7.37272727272727" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.7583333333333" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="54.625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="7.375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1995,10 +1995,10 @@
         <v>2500</v>
       </c>
       <c r="H23" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I23" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2024,10 +2024,10 @@
         <v>2500</v>
       </c>
       <c r="H24" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I24" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2053,10 +2053,10 @@
         <v>2500</v>
       </c>
       <c r="H25" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I25" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2082,10 +2082,10 @@
         <v>2500</v>
       </c>
       <c r="H26" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I26" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2247,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2273,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28500" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>ID</t>
   </si>
@@ -298,7 +298,7 @@
     <t>金牌招募令当然就是金的招募令。</t>
   </si>
   <si>
-    <t>Malachite</t>
+    <t>malachite</t>
   </si>
   <si>
     <t>孔雀石</t>
@@ -307,7 +307,7 @@
     <t>从孔雀山中采掘而来，用于打磨装备可提升韧性。</t>
   </si>
   <si>
-    <t>Agate</t>
+    <t>agate</t>
   </si>
   <si>
     <t>红玛瑙</t>
@@ -316,7 +316,7 @@
     <t>不可多得的西域奇石，可嵌于装备之中提升功力。</t>
   </si>
   <si>
-    <t>Crystal</t>
+    <t>charoite</t>
   </si>
   <si>
     <t>紫龙晶</t>
@@ -325,7 +325,7 @@
     <t>生长于龙穴中，每三年可长一尺，可附于装备上提升威力。</t>
   </si>
   <si>
-    <t>GoldenThread</t>
+    <t>goldenthread</t>
   </si>
   <si>
     <t>金丝</t>
@@ -349,8 +349,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -369,9 +369,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,6 +385,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -400,30 +460,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,22 +477,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,38 +500,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,14 +512,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -528,6 +528,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -540,13 +594,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,157 +666,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,45 +733,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,11 +763,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,16 +825,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,133 +852,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1341,21 +1341,22 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.7583333333333" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54.625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="7.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.7545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.8727272727273" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.9090909090909" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.12727272727273" style="2" customWidth="1"/>
+    <col min="6" max="6" width="54.6272727272727" style="2" customWidth="1"/>
+    <col min="7" max="9" width="7.37272727272727" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2156,6 +2157,9 @@
       <c r="C29" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="E29" s="2" t="s">
         <v>27</v>
       </c>
@@ -2182,6 +2186,9 @@
       <c r="C30" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="E30" s="2" t="s">
         <v>40</v>
       </c>
@@ -2208,6 +2215,9 @@
       <c r="C31" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="E31" s="2" t="s">
         <v>40</v>
       </c>
@@ -2234,6 +2244,9 @@
       <c r="C32" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="E32" s="2" t="s">
         <v>40</v>
       </c>
@@ -2259,6 +2272,9 @@
       </c>
       <c r="C33" s="2" t="s">
         <v>106</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>40</v>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -349,9 +349,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -369,9 +369,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,67 +385,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,9 +412,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,8 +443,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,8 +482,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,6 +497,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -528,31 +528,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,73 +672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,61 +696,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,32 +737,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,21 +779,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -825,25 +834,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,133 +852,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1341,7 +1341,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1763,10 +1763,10 @@
         <v>2500</v>
       </c>
       <c r="H15" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I15" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1792,10 +1792,10 @@
         <v>150</v>
       </c>
       <c r="H16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1821,10 +1821,10 @@
         <v>150</v>
       </c>
       <c r="H17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1850,10 +1850,10 @@
         <v>150</v>
       </c>
       <c r="H18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1879,10 +1879,10 @@
         <v>1000</v>
       </c>
       <c r="H19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1908,10 +1908,10 @@
         <v>1000</v>
       </c>
       <c r="H20" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1937,10 +1937,10 @@
         <v>800</v>
       </c>
       <c r="H21" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I21" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1966,10 +1966,10 @@
         <v>800</v>
       </c>
       <c r="H22" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I22" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2241,7 +2241,7 @@
         <v>104</v>
       </c>
       <c r="G32" s="2">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
@@ -2267,7 +2267,7 @@
         <v>107</v>
       </c>
       <c r="G33" s="2">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="H33" s="2">
         <v>1</v>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="22230" windowHeight="17180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -286,6 +286,9 @@
     <t>银牌招募令</t>
   </si>
   <si>
+    <t>silverolder</t>
+  </si>
+  <si>
     <t>银牌招募令当然就是银的招募令。</t>
   </si>
   <si>
@@ -295,6 +298,9 @@
     <t>金牌招募令</t>
   </si>
   <si>
+    <t>goldolder</t>
+  </si>
+  <si>
     <t>金牌招募令当然就是金的招募令。</t>
   </si>
   <si>
@@ -304,6 +310,9 @@
     <t>孔雀石</t>
   </si>
   <si>
+    <t>malachite</t>
+  </si>
+  <si>
     <t>从孔雀山中采掘而来，用于打磨装备可提升韧性。</t>
   </si>
   <si>
@@ -313,6 +322,9 @@
     <t>红玛瑙</t>
   </si>
   <si>
+    <t>agate</t>
+  </si>
+  <si>
     <t>不可多得的西域奇石，可嵌于装备之中提升功力。</t>
   </si>
   <si>
@@ -322,6 +334,9 @@
     <t>紫龙晶</t>
   </si>
   <si>
+    <t>charoite</t>
+  </si>
+  <si>
     <t>生长于龙穴中，每三年可长一尺，可附于装备上提升威力。</t>
   </si>
   <si>
@@ -331,6 +346,9 @@
     <t>金丝</t>
   </si>
   <si>
+    <t>goldenthread</t>
+  </si>
+  <si>
     <t>集齐九位大师级工匠，以纯金打造，乃上乘宝物。</t>
   </si>
   <si>
@@ -338,6 +356,9 @@
   </si>
   <si>
     <t>龙鳞</t>
+  </si>
+  <si>
+    <t>dragondcales</t>
   </si>
   <si>
     <t>传闻古时有九龙争斗于苍穹，散落龙鳞下凡，乃稀世珍宝也。</t>
@@ -349,9 +370,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -377,7 +398,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,92 +412,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,7 +435,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,6 +525,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -528,187 +549,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,9 +760,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,15 +774,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,17 +793,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,11 +819,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,16 +840,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,133 +873,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1341,21 +1362,22 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.7583333333333" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54.625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="7.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.7545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.8727272727273" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.12727272727273" style="2" customWidth="1"/>
+    <col min="6" max="6" width="54.6272727272727" style="2" customWidth="1"/>
+    <col min="7" max="9" width="7.37272727272727" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1413,7 +1435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1433,7 +1455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2099,13 +2121,13 @@
         <v>88</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G27" s="2">
         <v>3000</v>
@@ -2122,19 +2144,19 @@
         <v>2002</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G28" s="2">
         <v>5000</v>
@@ -2151,16 +2173,19 @@
         <v>3001</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G29" s="2">
         <v>2000</v>
@@ -2177,16 +2202,19 @@
         <v>3002</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G30" s="2">
         <v>3000</v>
@@ -2203,16 +2231,19 @@
         <v>3003</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G31" s="2">
         <v>5000</v>
@@ -2229,16 +2260,19 @@
         <v>3101</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G32" s="2">
         <v>5000</v>
@@ -2255,16 +2289,19 @@
         <v>3102</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G33" s="2">
         <v>5000</v>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22230" windowHeight="17180"/>
+    <workbookView windowWidth="27950" windowHeight="17180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="116">
   <si>
     <t>ID</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>鹿茸</t>
+  </si>
+  <si>
+    <t>antler</t>
   </si>
   <si>
     <t>我爹最喜欢用它泡酒，补气壮阳。</t>
@@ -370,8 +373,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -405,14 +408,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,6 +456,45 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,7 +524,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,77 +536,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -555,175 +558,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,26 +761,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -793,11 +776,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,22 +830,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,16 +849,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,130 +876,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1362,7 +1365,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2005,13 +2008,13 @@
         <v>76</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G23" s="2">
         <v>2500</v>
@@ -2028,19 +2031,19 @@
         <v>1020</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G24" s="2">
         <v>2500</v>
@@ -2057,19 +2060,19 @@
         <v>1021</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G25" s="2">
         <v>2500</v>
@@ -2086,19 +2089,19 @@
         <v>1022</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G26" s="2">
         <v>2500</v>
@@ -2115,19 +2118,19 @@
         <v>2001</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G27" s="2">
         <v>3000</v>
@@ -2144,19 +2147,19 @@
         <v>2002</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G28" s="2">
         <v>5000</v>
@@ -2173,19 +2176,19 @@
         <v>3001</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G29" s="2">
         <v>2000</v>
@@ -2202,19 +2205,19 @@
         <v>3002</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G30" s="2">
         <v>3000</v>
@@ -2231,19 +2234,19 @@
         <v>3003</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G31" s="2">
         <v>5000</v>
@@ -2260,19 +2263,19 @@
         <v>3101</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G32" s="2">
         <v>5000</v>
@@ -2289,19 +2292,19 @@
         <v>3102</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G33" s="2">
         <v>5000</v>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27950" windowHeight="17180"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,6 +401,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -408,7 +429,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,17 +437,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,8 +459,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,15 +484,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,37 +500,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,9 +508,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -530,8 +521,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,55 +552,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,127 +726,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,6 +757,54 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,199 +858,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1365,22 +1365,22 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.7545454545455" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.8727272727273" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.7583333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.12727272727273" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54.6272727272727" style="2" customWidth="1"/>
-    <col min="7" max="9" width="7.37272727272727" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="54.625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="7.375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="2">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -1524,7 +1524,7 @@
         <v>24</v>
       </c>
       <c r="G6" s="2">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -1553,7 +1553,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="2">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
@@ -1582,7 +1582,7 @@
         <v>31</v>
       </c>
       <c r="G8" s="2">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
@@ -1611,7 +1611,7 @@
         <v>34</v>
       </c>
       <c r="G9" s="2">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2">
         <v>4</v>
@@ -1640,7 +1640,7 @@
         <v>37</v>
       </c>
       <c r="G10" s="2">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2">
         <v>2</v>
@@ -1669,7 +1669,7 @@
         <v>41</v>
       </c>
       <c r="G11" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="H11" s="2">
         <v>3</v>
@@ -1698,7 +1698,7 @@
         <v>44</v>
       </c>
       <c r="G12" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="H12" s="2">
         <v>3</v>
@@ -1727,7 +1727,7 @@
         <v>47</v>
       </c>
       <c r="G13" s="2">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="H13" s="2">
         <v>2</v>
@@ -1756,7 +1756,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="2">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="H14" s="2">
         <v>2</v>
@@ -1785,7 +1785,7 @@
         <v>53</v>
       </c>
       <c r="G15" s="2">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="H15" s="2">
         <v>5</v>
@@ -1814,7 +1814,7 @@
         <v>56</v>
       </c>
       <c r="G16" s="2">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="H16" s="2">
         <v>4</v>
@@ -1843,7 +1843,7 @@
         <v>59</v>
       </c>
       <c r="G17" s="2">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="H17" s="2">
         <v>3</v>
@@ -1872,7 +1872,7 @@
         <v>62</v>
       </c>
       <c r="G18" s="2">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="H18" s="2">
         <v>3</v>
@@ -1901,7 +1901,7 @@
         <v>65</v>
       </c>
       <c r="G19" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="H19" s="2">
         <v>4</v>
@@ -1930,7 +1930,7 @@
         <v>68</v>
       </c>
       <c r="G20" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="H20" s="2">
         <v>4</v>
@@ -1959,7 +1959,7 @@
         <v>71</v>
       </c>
       <c r="G21" s="2">
-        <v>800</v>
+        <v>80</v>
       </c>
       <c r="H21" s="2">
         <v>5</v>
@@ -1988,7 +1988,7 @@
         <v>74</v>
       </c>
       <c r="G22" s="2">
-        <v>800</v>
+        <v>80</v>
       </c>
       <c r="H22" s="2">
         <v>5</v>
@@ -2017,7 +2017,7 @@
         <v>78</v>
       </c>
       <c r="G23" s="2">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="H23" s="2">
         <v>6</v>
@@ -2046,7 +2046,7 @@
         <v>81</v>
       </c>
       <c r="G24" s="2">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="H24" s="2">
         <v>6</v>
@@ -2075,7 +2075,7 @@
         <v>84</v>
       </c>
       <c r="G25" s="2">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="H25" s="2">
         <v>4</v>
@@ -2104,7 +2104,7 @@
         <v>87</v>
       </c>
       <c r="G26" s="2">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="H26" s="2">
         <v>4</v>
@@ -2133,7 +2133,7 @@
         <v>91</v>
       </c>
       <c r="G27" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="H27" s="2">
         <v>1</v>
@@ -2162,7 +2162,7 @@
         <v>95</v>
       </c>
       <c r="G28" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="H28" s="2">
         <v>1</v>
@@ -2191,7 +2191,7 @@
         <v>99</v>
       </c>
       <c r="G29" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
@@ -2220,7 +2220,7 @@
         <v>103</v>
       </c>
       <c r="G30" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
@@ -2249,7 +2249,7 @@
         <v>107</v>
       </c>
       <c r="G31" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
@@ -2278,7 +2278,7 @@
         <v>111</v>
       </c>
       <c r="G32" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
@@ -2307,7 +2307,7 @@
         <v>115</v>
       </c>
       <c r="G33" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="H33" s="2">
         <v>1</v>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -394,21 +394,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,14 +416,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,14 +424,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -460,10 +462,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,8 +477,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,9 +507,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,35 +530,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -552,61 +552,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,115 +732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,15 +761,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -781,15 +772,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,6 +806,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -838,36 +858,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -876,16 +876,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -894,115 +894,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1365,7 +1365,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
     <t>这玩意儿本来没什么用，直到有人发明了叫花鸡。</t>
   </si>
   <si>
-    <t>chicken</t>
+    <t>rawchicken</t>
   </si>
   <si>
     <t>鸡</t>
@@ -373,8 +373,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -393,23 +393,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,16 +416,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,9 +461,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,46 +516,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,21 +530,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -552,97 +552,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,85 +732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,36 +757,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,11 +785,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,31 +858,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -876,133 +876,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1365,22 +1365,22 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="B18 D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.7583333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.7545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.8727272727273" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54.625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="7.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.12727272727273" style="2" customWidth="1"/>
+    <col min="6" max="6" width="54.6272727272727" style="2" customWidth="1"/>
+    <col min="7" max="9" width="7.37272727272727" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Item\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F593DD56-7074-4716-9500-61CE2B74354C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17930"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="168">
   <si>
     <t>ID</t>
   </si>
@@ -365,19 +371,219 @@
   </si>
   <si>
     <t>传闻古时有九龙争斗于苍穹，散落龙鳞下凡，乃稀世珍宝也。</t>
+  </si>
+  <si>
+    <t>解锁文本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能文本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockDesc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionDesc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩猎野猪获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>池塘收集获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩猎熊获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>池塘钓鱼获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕捉小鸡获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩猎毒蛇获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打井获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩猎鹿获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集蜂巢获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集灵芝获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓捕刺客可能获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败倭寇可能获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集云岩获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集银木获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集紫藤获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集黑铁获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集银木可能获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集云岩可能获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集青岩获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集乌木获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岩，用于建造、升级建筑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云岩，用于建造、升级建筑</t>
+  </si>
+  <si>
+    <t>银木，用于建造、升级建筑</t>
+  </si>
+  <si>
+    <t>乌木，用于建造、升级建筑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉，用于制作红烧狮子头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕，用于制作红烧狮子头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊掌，用于制作掌上明珠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼，用于制作掌上明珠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡，用于制作叫花鸡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷叶，用于制作叫花鸡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇胆，用于制作赤胆壮气丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂王浆，用于制作赤胆壮气丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花，用于制作莲花清神露</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>古井水，用于制作莲花清神露</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿茸，用于制作还魂丹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵芝，用于制作还魂丹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂针，用于制作金针青蛇膏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒牙，用于制作金针青蛇膏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫藤，用于制造护甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔雀石，用于升级武器护甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红玛瑙，用于升级武器护甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫龙晶，用于升级武器护甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金丝，用于制作高级护甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙鳞，用于制作高级武器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银叶，用于制造护甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云晶，用于制造武器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑铁，用于制造武器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,154 +596,34 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,198 +632,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -760,253 +660,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1014,62 +672,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1354,33 +974,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="B18 D18"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.7545454545455" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.8727272727273" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.12727272727273" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54.6272727272727" style="2" customWidth="1"/>
-    <col min="7" max="9" width="7.37272727272727" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="5.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="54.6640625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="7.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1408,8 +1029,14 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1437,8 +1064,14 @@
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:7">
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1457,8 +1090,14 @@
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:7">
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1474,8 +1113,14 @@
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
@@ -1503,8 +1148,14 @@
       <c r="I5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
@@ -1532,8 +1183,14 @@
       <c r="I6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
@@ -1561,8 +1218,14 @@
       <c r="I7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
@@ -1590,8 +1253,14 @@
       <c r="I8" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
@@ -1619,8 +1288,14 @@
       <c r="I9" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
@@ -1648,8 +1323,14 @@
       <c r="I10" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
@@ -1677,8 +1358,14 @@
       <c r="I11" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
@@ -1706,8 +1393,14 @@
       <c r="I12" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
@@ -1735,8 +1428,14 @@
       <c r="I13" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
@@ -1764,8 +1463,14 @@
       <c r="I14" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1011</v>
       </c>
@@ -1793,8 +1498,14 @@
       <c r="I15" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1012</v>
       </c>
@@ -1822,8 +1533,14 @@
       <c r="I16" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1013</v>
       </c>
@@ -1851,8 +1568,14 @@
       <c r="I17" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1014</v>
       </c>
@@ -1880,8 +1603,14 @@
       <c r="I18" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1015</v>
       </c>
@@ -1909,8 +1638,14 @@
       <c r="I19" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1016</v>
       </c>
@@ -1938,8 +1673,14 @@
       <c r="I20" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1017</v>
       </c>
@@ -1967,8 +1708,14 @@
       <c r="I21" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1018</v>
       </c>
@@ -1996,8 +1743,14 @@
       <c r="I22" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1019</v>
       </c>
@@ -2025,8 +1778,14 @@
       <c r="I23" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1020</v>
       </c>
@@ -2054,8 +1813,14 @@
       <c r="I24" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1021</v>
       </c>
@@ -2083,8 +1848,14 @@
       <c r="I25" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1022</v>
       </c>
@@ -2112,8 +1883,14 @@
       <c r="I26" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2001</v>
       </c>
@@ -2141,8 +1918,9 @@
       <c r="I27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2002</v>
       </c>
@@ -2170,8 +1948,9 @@
       <c r="I28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>3001</v>
       </c>
@@ -2199,8 +1978,14 @@
       <c r="I29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>3002</v>
       </c>
@@ -2228,8 +2013,14 @@
       <c r="I30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>3003</v>
       </c>
@@ -2257,8 +2048,14 @@
       <c r="I31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>3101</v>
       </c>
@@ -2286,8 +2083,14 @@
       <c r="I32" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>3102</v>
       </c>
@@ -2315,13 +2118,19 @@
       <c r="I33" s="2">
         <v>7</v>
       </c>
+      <c r="J33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:F15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F15">
     <sortCondition ref="A5"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F593DD56-7074-4716-9500-61CE2B74354C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4EAAD6-30B2-41FA-97B5-9037CAB84D7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1224" yWindow="564" windowWidth="20664" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="138">
   <si>
     <t>ID</t>
   </si>
@@ -377,18 +377,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>功能文本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UnlockDesc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FunctionDesc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>狩猎野猪获得</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -466,116 +458,6 @@
   </si>
   <si>
     <t>采集乌木获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>青岩，用于建造、升级建筑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>云岩，用于建造、升级建筑</t>
-  </si>
-  <si>
-    <t>银木，用于建造、升级建筑</t>
-  </si>
-  <si>
-    <t>乌木，用于建造、升级建筑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪肉，用于制作红烧狮子头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕，用于制作红烧狮子头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊掌，用于制作掌上明珠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼，用于制作掌上明珠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡，用于制作叫花鸡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>荷叶，用于制作叫花鸡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛇胆，用于制作赤胆壮气丸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜂王浆，用于制作赤胆壮气丸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲花，用于制作莲花清神露</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>古井水，用于制作莲花清神露</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹿茸，用于制作还魂丹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵芝，用于制作还魂丹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜂针，用于制作金针青蛇膏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒牙，用于制作金针青蛇膏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫藤，用于制造护甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔雀石，用于升级武器护甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>红玛瑙，用于升级武器护甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫龙晶，用于升级武器护甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金丝，用于制作高级护甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙鳞，用于制作高级武器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>银叶，用于制造护甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>云晶，用于制造武器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑铁，用于制造武器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -980,11 +862,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -997,11 +879,10 @@
     <col min="6" max="6" width="54.6640625" style="2" customWidth="1"/>
     <col min="7" max="9" width="7.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1032,11 +913,8 @@
       <c r="J1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,11 +945,8 @@
       <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1093,11 +968,8 @@
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1114,13 +986,10 @@
         <v>17</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
@@ -1149,13 +1018,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
@@ -1184,13 +1050,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
@@ -1219,13 +1082,10 @@
         <v>3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
@@ -1254,13 +1114,10 @@
         <v>3</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
@@ -1289,13 +1146,10 @@
         <v>4</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
@@ -1324,13 +1178,10 @@
         <v>2</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
@@ -1359,13 +1210,10 @@
         <v>3</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
@@ -1394,13 +1242,10 @@
         <v>3</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
@@ -1429,13 +1274,10 @@
         <v>2</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
@@ -1464,13 +1306,10 @@
         <v>2</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1011</v>
       </c>
@@ -1499,13 +1338,10 @@
         <v>5</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1012</v>
       </c>
@@ -1534,13 +1370,10 @@
         <v>4</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1013</v>
       </c>
@@ -1569,13 +1402,10 @@
         <v>3</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1014</v>
       </c>
@@ -1604,13 +1434,10 @@
         <v>3</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1015</v>
       </c>
@@ -1639,13 +1466,10 @@
         <v>4</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1016</v>
       </c>
@@ -1674,13 +1498,10 @@
         <v>4</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1017</v>
       </c>
@@ -1709,13 +1530,10 @@
         <v>5</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1018</v>
       </c>
@@ -1744,13 +1562,10 @@
         <v>5</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1019</v>
       </c>
@@ -1779,13 +1594,10 @@
         <v>7</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1020</v>
       </c>
@@ -1814,13 +1626,10 @@
         <v>7</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1021</v>
       </c>
@@ -1849,13 +1658,10 @@
         <v>5</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1022</v>
       </c>
@@ -1884,13 +1690,10 @@
         <v>5</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2001</v>
       </c>
@@ -1918,9 +1721,8 @@
       <c r="I27" s="2">
         <v>1</v>
       </c>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2002</v>
       </c>
@@ -1948,9 +1750,8 @@
       <c r="I28" s="2">
         <v>1</v>
       </c>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>3001</v>
       </c>
@@ -1979,13 +1780,10 @@
         <v>1</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>3002</v>
       </c>
@@ -2014,13 +1812,10 @@
         <v>1</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>3003</v>
       </c>
@@ -2049,13 +1844,10 @@
         <v>1</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>3101</v>
       </c>
@@ -2084,13 +1876,10 @@
         <v>8</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>3102</v>
       </c>
@@ -2119,10 +1908,7 @@
         <v>7</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4EAAD6-30B2-41FA-97B5-9037CAB84D7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE83A31A-7CEE-4CB4-B85B-FDE2742F3E01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1224" yWindow="564" windowWidth="20664" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="145">
   <si>
     <t>ID</t>
   </si>
@@ -458,6 +458,34 @@
   </si>
   <si>
     <t>采集乌木获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能文本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionDesc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂王浆;用于制作赤胆壮气丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花;用于制作莲花清神露</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕;用于制作红烧狮子头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷叶;用于制作叫花鸡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -862,11 +890,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -879,10 +907,11 @@
     <col min="6" max="6" width="54.6640625" style="2" customWidth="1"/>
     <col min="7" max="9" width="7.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="11" max="11" width="29.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,8 +942,11 @@
       <c r="J1" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,8 +977,11 @@
       <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -968,8 +1003,11 @@
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -988,8 +1026,11 @@
       <c r="J4" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
@@ -1021,7 +1062,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
@@ -1053,7 +1094,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
@@ -1085,7 +1126,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
@@ -1117,7 +1158,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
@@ -1149,7 +1190,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
@@ -1181,7 +1222,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
@@ -1213,7 +1254,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
@@ -1245,7 +1286,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
@@ -1277,7 +1318,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
@@ -1308,8 +1349,11 @@
       <c r="J14" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1011</v>
       </c>
@@ -1341,7 +1385,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1012</v>
       </c>
@@ -1373,7 +1417,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1013</v>
       </c>
@@ -1404,8 +1448,11 @@
       <c r="J17" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1014</v>
       </c>
@@ -1437,7 +1484,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1015</v>
       </c>
@@ -1469,7 +1516,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1016</v>
       </c>
@@ -1500,8 +1547,11 @@
       <c r="J20" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1017</v>
       </c>
@@ -1532,8 +1582,11 @@
       <c r="J21" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1018</v>
       </c>
@@ -1565,7 +1618,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1019</v>
       </c>
@@ -1597,7 +1650,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1020</v>
       </c>
@@ -1629,7 +1682,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1021</v>
       </c>
@@ -1661,7 +1714,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1022</v>
       </c>
@@ -1693,7 +1746,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2001</v>
       </c>
@@ -1722,7 +1775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2002</v>
       </c>
@@ -1751,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>3001</v>
       </c>
@@ -1783,7 +1836,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>3002</v>
       </c>
@@ -1815,7 +1868,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>3003</v>
       </c>
@@ -1847,7 +1900,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>3101</v>
       </c>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE83A31A-7CEE-4CB4-B85B-FDE2742F3E01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F241C14-0CF7-4B50-9559-BC372FB544A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="148">
   <si>
     <t>ID</t>
   </si>
@@ -486,6 +486,17 @@
   </si>
   <si>
     <t>荷叶;用于制作叫花鸡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeLevel</t>
+  </si>
+  <si>
+    <t>UseLevel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -894,7 +905,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -905,7 +916,9 @@
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
     <col min="5" max="5" width="5.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="54.6640625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="7.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
@@ -969,10 +982,10 @@
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -1000,6 +1013,12 @@
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1022,6 +1041,12 @@
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>117</v>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F241C14-0CF7-4B50-9559-BC372FB544A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DBAA11-1505-4907-A8EA-094DBD1EBE6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="151">
   <si>
     <t>ID</t>
   </si>
@@ -385,10 +385,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>池塘收集获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>狩猎熊获得</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -497,6 +493,22 @@
   </si>
   <si>
     <t>UseLevel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕;池塘收集获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷叶;池塘收集获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂王浆;采集蜂巢获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花;池塘收集获得</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -905,7 +917,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -919,7 +931,7 @@
     <col min="7" max="7" width="7.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
@@ -956,7 +968,7 @@
         <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
@@ -982,16 +994,16 @@
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
@@ -1014,10 +1026,10 @@
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
@@ -1043,16 +1055,16 @@
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>117</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1084,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1116,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1148,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1180,7 +1192,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1212,7 +1224,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1244,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1276,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1308,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1372,10 +1384,10 @@
         <v>2</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1407,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1439,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1471,10 +1483,10 @@
         <v>3</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1506,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1538,7 +1550,7 @@
         <v>4</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1570,10 +1582,10 @@
         <v>4</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1605,10 +1617,10 @@
         <v>5</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1640,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1672,7 +1684,7 @@
         <v>7</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1704,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1736,7 +1748,7 @@
         <v>5</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1768,7 +1780,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1858,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1890,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1922,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1954,7 +1966,7 @@
         <v>8</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1986,7 +1998,7 @@
         <v>7</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DBAA11-1505-4907-A8EA-094DBD1EBE6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D33268D-497B-49FF-AA13-24E10B0CAD67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="157">
   <si>
     <t>ID</t>
   </si>
@@ -509,6 +509,30 @@
   </si>
   <si>
     <t>莲花;池塘收集获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解锁文本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lockDesc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕;讲武堂2级解锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>捉鸡;讲武堂3级解锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂王浆;讲武堂4级解锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花;讲武堂5级解锁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -913,11 +937,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -933,10 +957,11 @@
     <col min="9" max="9" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="12" max="12" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -970,8 +995,11 @@
       <c r="K1" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1005,8 +1033,11 @@
       <c r="K2" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1037,8 +1068,11 @@
       <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,8 +1100,11 @@
       <c r="K4" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
@@ -1099,7 +1136,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
@@ -1131,7 +1168,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
@@ -1163,7 +1200,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
@@ -1195,7 +1232,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
@@ -1227,7 +1264,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
@@ -1259,7 +1296,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
@@ -1291,7 +1328,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
@@ -1323,7 +1360,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
@@ -1355,7 +1392,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
@@ -1389,8 +1426,11 @@
       <c r="K14" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1011</v>
       </c>
@@ -1422,7 +1462,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1012</v>
       </c>
@@ -1454,7 +1494,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1013</v>
       </c>
@@ -1488,8 +1528,11 @@
       <c r="K17" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1014</v>
       </c>
@@ -1521,7 +1564,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1015</v>
       </c>
@@ -1553,7 +1596,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1016</v>
       </c>
@@ -1587,8 +1630,11 @@
       <c r="K20" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1017</v>
       </c>
@@ -1622,8 +1668,11 @@
       <c r="K21" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1018</v>
       </c>
@@ -1655,7 +1704,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1019</v>
       </c>
@@ -1687,7 +1736,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1020</v>
       </c>
@@ -1719,7 +1768,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1021</v>
       </c>
@@ -1751,7 +1800,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1022</v>
       </c>
@@ -1783,7 +1832,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2001</v>
       </c>
@@ -1812,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2002</v>
       </c>
@@ -1841,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>3001</v>
       </c>
@@ -1873,7 +1922,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>3002</v>
       </c>
@@ -1905,7 +1954,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>3003</v>
       </c>
@@ -1937,7 +1986,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>3101</v>
       </c>

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D33268D-497B-49FF-AA13-24E10B0CAD67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18811E3F-7838-4EAB-99BC-72882AB5FC14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,23 +516,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>lockDesc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>莲藕;讲武堂2级解锁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>捉鸡;讲武堂3级解锁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>蜂王浆;讲武堂4级解锁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>莲花;讲武堂5级解锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockDesc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷叶;讲武堂3级解锁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -941,7 +941,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1101,7 +1101,7 @@
         <v>139</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1427,7 +1427,7 @@
         <v>142</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1529,7 +1529,7 @@
         <v>143</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1631,7 +1631,7 @@
         <v>140</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1669,7 +1669,7 @@
         <v>141</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">

--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Item\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18811E3F-7838-4EAB-99BC-72882AB5FC14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="154">
   <si>
     <t>ID</t>
   </si>
@@ -52,6 +46,15 @@
     <t>使用等级</t>
   </si>
   <si>
+    <t>解锁文本</t>
+  </si>
+  <si>
+    <t>功能文本</t>
+  </si>
+  <si>
+    <t>未解锁文本</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -79,6 +82,21 @@
     <t>Price</t>
   </si>
   <si>
+    <t>HomeLevel</t>
+  </si>
+  <si>
+    <t>UseLevel</t>
+  </si>
+  <si>
+    <t>UnlockDesc</t>
+  </si>
+  <si>
+    <t>FunctionDesc</t>
+  </si>
+  <si>
+    <t>LockDesc</t>
+  </si>
+  <si>
     <t>cyanrock</t>
   </si>
   <si>
@@ -91,6 +109,9 @@
     <t>一种普通的建筑石材，山里面多得很。</t>
   </si>
   <si>
+    <t>采集青岩获得</t>
+  </si>
+  <si>
     <t>blackwood</t>
   </si>
   <si>
@@ -100,6 +121,9 @@
     <t>盖房子必不可少的木材，生长很快。</t>
   </si>
   <si>
+    <t>采集乌木获得</t>
+  </si>
+  <si>
     <t>moirerock</t>
   </si>
   <si>
@@ -112,6 +136,9 @@
     <t>盖房子的高级石料，从远处看起来很像云朵。</t>
   </si>
   <si>
+    <t>采集云岩获得</t>
+  </si>
+  <si>
     <t>silverwood</t>
   </si>
   <si>
@@ -121,6 +148,9 @@
     <t>这种木材又硬又漂亮，据说皇宫都是用它造的。</t>
   </si>
   <si>
+    <t>采集银木获得</t>
+  </si>
+  <si>
     <t>wisteria</t>
   </si>
   <si>
@@ -130,6 +160,9 @@
     <t>长在悬崖峭壁上的藤，既轻便又有韧性，做铠甲正合适。</t>
   </si>
   <si>
+    <t>采集紫藤获得</t>
+  </si>
+  <si>
     <t>iron</t>
   </si>
   <si>
@@ -139,6 +172,9 @@
     <t>这种铁石挖出来就是黑乎乎的，可以打造各种工具。</t>
   </si>
   <si>
+    <t>采集黑铁获得</t>
+  </si>
+  <si>
     <t>silverleaf</t>
   </si>
   <si>
@@ -151,6 +187,9 @@
     <t>银木上一种特殊的叶子，非常稀有。</t>
   </si>
   <si>
+    <t>押镖可获得</t>
+  </si>
+  <si>
     <t>moirecrystal</t>
   </si>
   <si>
@@ -169,6 +208,9 @@
     <t>师娘最擅长用肉做狮子头了，贼好吃。</t>
   </si>
   <si>
+    <t>狩猎野猪获得</t>
+  </si>
+  <si>
     <t>lotusroot</t>
   </si>
   <si>
@@ -178,6 +220,15 @@
     <t>有人喜欢吃有人不喜欢，看各人口味吧。</t>
   </si>
   <si>
+    <t>莲藕;池塘收集获得</t>
+  </si>
+  <si>
+    <t>莲藕;用于制作红烧狮子头</t>
+  </si>
+  <si>
+    <t>莲藕;讲武堂2级解锁</t>
+  </si>
+  <si>
     <t>bearspaw</t>
   </si>
   <si>
@@ -187,6 +238,9 @@
     <t>我滴乖乖，这玩意儿一般人可吃不着。</t>
   </si>
   <si>
+    <t>狩猎熊获得</t>
+  </si>
+  <si>
     <t>fish</t>
   </si>
   <si>
@@ -196,6 +250,9 @@
     <t>莲花池里的鱼特别好吃，肉质细嫩还没有刺。</t>
   </si>
   <si>
+    <t>池塘钓鱼获得</t>
+  </si>
+  <si>
     <t>lotusleaf</t>
   </si>
   <si>
@@ -205,6 +262,15 @@
     <t>这玩意儿本来没什么用，直到有人发明了叫花鸡。</t>
   </si>
   <si>
+    <t>荷叶;池塘收集获得</t>
+  </si>
+  <si>
+    <t>荷叶;用于制作叫花鸡</t>
+  </si>
+  <si>
+    <t>荷叶;讲武堂3级解锁</t>
+  </si>
+  <si>
     <t>rawchicken</t>
   </si>
   <si>
@@ -214,6 +280,9 @@
     <t>咱们庄上的鸡都是散养的，肉质特别赞。</t>
   </si>
   <si>
+    <t>捕捉小鸡获得</t>
+  </si>
+  <si>
     <t>snakegall</t>
   </si>
   <si>
@@ -223,6 +292,9 @@
     <t>这可是好东西，可以增强免疫系统，提升功力。</t>
   </si>
   <si>
+    <t>狩猎毒蛇获得</t>
+  </si>
+  <si>
     <t>royaljelly</t>
   </si>
   <si>
@@ -232,6 +304,15 @@
     <t>就在池塘边那棵槐树上的蜂窝里采的，绝对正宗。</t>
   </si>
   <si>
+    <t>蜂王浆;采集蜂巢获得</t>
+  </si>
+  <si>
+    <t>蜂王浆;用于制作赤胆壮气丸</t>
+  </si>
+  <si>
+    <t>蜂王浆;讲武堂4级解锁</t>
+  </si>
+  <si>
     <t>lotus</t>
   </si>
   <si>
@@ -241,6 +322,15 @@
     <t>出淤泥而不染，濯清涟而不妖，好看。</t>
   </si>
   <si>
+    <t>莲花;池塘收集获得</t>
+  </si>
+  <si>
+    <t>莲花;用于制作莲花清神露</t>
+  </si>
+  <si>
+    <t>莲花;讲武堂5级解锁</t>
+  </si>
+  <si>
     <t>wellwater</t>
   </si>
   <si>
@@ -250,6 +340,9 @@
     <t>后院里古井打上来的水，据说喝了可以明目醒脑。</t>
   </si>
   <si>
+    <t>打井获得</t>
+  </si>
+  <si>
     <t>antier</t>
   </si>
   <si>
@@ -262,6 +355,9 @@
     <t>我爹最喜欢用它泡酒，补气壮阳。</t>
   </si>
   <si>
+    <t>狩猎鹿获得</t>
+  </si>
+  <si>
     <t>lingzhi</t>
   </si>
   <si>
@@ -271,6 +367,9 @@
     <t>野生灵芝是上等的药材，可以用来炼制还魂丹。</t>
   </si>
   <si>
+    <t>采集灵芝获得</t>
+  </si>
+  <si>
     <t>beeneedle</t>
   </si>
   <si>
@@ -280,6 +379,9 @@
     <t>金蜂尾部的毒针，采蜜的时候有可能找到它。</t>
   </si>
   <si>
+    <t>采集蜂巢获得</t>
+  </si>
+  <si>
     <t>poisonfang</t>
   </si>
   <si>
@@ -325,6 +427,9 @@
     <t>从孔雀山中采掘而来，用于打磨装备可提升韧性。</t>
   </si>
   <si>
+    <t>缉盗、爬塔可获得</t>
+  </si>
+  <si>
     <t>Agate</t>
   </si>
   <si>
@@ -361,6 +466,9 @@
     <t>集齐九位大师级工匠，以纯金打造，乃上乘宝物。</t>
   </si>
   <si>
+    <t>抗倭、押镖可获得</t>
+  </si>
+  <si>
     <t>DragonScales</t>
   </si>
   <si>
@@ -371,176 +479,19 @@
   </si>
   <si>
     <t>传闻古时有九龙争斗于苍穹，散落龙鳞下凡，乃稀世珍宝也。</t>
-  </si>
-  <si>
-    <t>解锁文本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnlockDesc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狩猎野猪获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狩猎熊获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>池塘钓鱼获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕捉小鸡获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狩猎毒蛇获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打井获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狩猎鹿获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集蜂巢获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集灵芝获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓捕刺客可能获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>击败倭寇可能获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集云岩获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集银木获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集紫藤获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集黑铁获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集银木可能获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集云岩可能获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集青岩获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集乌木获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能文本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionDesc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜂王浆;用于制作赤胆壮气丸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲花;用于制作莲花清神露</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕;用于制作红烧狮子头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>荷叶;用于制作叫花鸡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomeLevel</t>
-  </si>
-  <si>
-    <t>UseLevel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕;池塘收集获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>荷叶;池塘收集获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜂王浆;采集蜂巢获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲花;池塘收集获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未解锁文本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕;讲武堂2级解锁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜂王浆;讲武堂4级解锁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲花;讲武堂5级解锁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LockDesc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>荷叶;讲武堂3级解锁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,34 +504,161 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -589,12 +667,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -617,11 +881,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -629,24 +1135,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -931,37 +1478,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.33333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.775" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.8833333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.10833333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="54.6666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.33333333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.1083333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.5583333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="29.2166666666667" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22.6666666666667" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -990,138 +1538,138 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>117</v>
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2">
         <v>5</v>
@@ -1132,28 +1680,28 @@
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2">
         <v>5</v>
@@ -1164,28 +1712,28 @@
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2">
         <v>50</v>
@@ -1196,28 +1744,28 @@
       <c r="I7" s="2">
         <v>3</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2">
         <v>50</v>
@@ -1228,28 +1776,28 @@
       <c r="I8" s="2">
         <v>3</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2">
         <v>30</v>
@@ -1260,28 +1808,28 @@
       <c r="I9" s="2">
         <v>4</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G10" s="2">
         <v>30</v>
@@ -1292,28 +1840,28 @@
       <c r="I10" s="2">
         <v>2</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J10" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G11" s="2">
         <v>200</v>
@@ -1324,28 +1872,28 @@
       <c r="I11" s="2">
         <v>3</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G12" s="2">
         <v>200</v>
@@ -1356,28 +1904,28 @@
       <c r="I12" s="2">
         <v>3</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G13" s="2">
         <v>10</v>
@@ -1388,28 +1936,28 @@
       <c r="I13" s="2">
         <v>2</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J13" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G14" s="2">
         <v>10</v>
@@ -1420,34 +1968,34 @@
       <c r="I14" s="2">
         <v>2</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>1011</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="G15" s="2">
         <v>250</v>
@@ -1458,28 +2006,28 @@
       <c r="I15" s="2">
         <v>5</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>1012</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G16" s="2">
         <v>15</v>
@@ -1490,28 +2038,28 @@
       <c r="I16" s="2">
         <v>4</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J16" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="2">
         <v>1013</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="G17" s="2">
         <v>15</v>
@@ -1522,34 +2070,34 @@
       <c r="I17" s="2">
         <v>3</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>1014</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="G18" s="2">
         <v>15</v>
@@ -1560,28 +2108,28 @@
       <c r="I18" s="2">
         <v>3</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J18" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>1015</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G19" s="2">
         <v>100</v>
@@ -1592,28 +2140,28 @@
       <c r="I19" s="2">
         <v>4</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J19" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="2">
         <v>1016</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="G20" s="2">
         <v>100</v>
@@ -1624,34 +2172,34 @@
       <c r="I20" s="2">
         <v>4</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="2">
         <v>1017</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="G21" s="2">
         <v>80</v>
@@ -1662,34 +2210,34 @@
       <c r="I21" s="2">
         <v>5</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>1018</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="G22" s="2">
         <v>80</v>
@@ -1700,28 +2248,28 @@
       <c r="I22" s="2">
         <v>5</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J22" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>1019</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="G23" s="2">
         <v>250</v>
@@ -1732,28 +2280,28 @@
       <c r="I23" s="2">
         <v>7</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J23" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>1020</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="G24" s="2">
         <v>250</v>
@@ -1764,28 +2312,28 @@
       <c r="I24" s="2">
         <v>7</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J24" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>1021</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="G25" s="2">
         <v>250</v>
@@ -1796,28 +2344,28 @@
       <c r="I25" s="2">
         <v>5</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J25" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>1022</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="G26" s="2">
         <v>250</v>
@@ -1828,28 +2376,28 @@
       <c r="I26" s="2">
         <v>5</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J26" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
         <v>2001</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="G27" s="2">
         <v>300</v>
@@ -1861,24 +2409,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
         <v>2002</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="G28" s="2">
         <v>500</v>
@@ -1890,24 +2438,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>3001</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G29" s="2">
         <v>200</v>
@@ -1918,28 +2466,28 @@
       <c r="I29" s="2">
         <v>1</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J29" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>3002</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="G30" s="2">
         <v>300</v>
@@ -1950,28 +2498,28 @@
       <c r="I30" s="2">
         <v>1</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J30" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>3003</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="G31" s="2">
         <v>500</v>
@@ -1982,28 +2530,28 @@
       <c r="I31" s="2">
         <v>1</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J31" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>3101</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="G32" s="2">
         <v>500</v>
@@ -2014,28 +2562,28 @@
       <c r="I32" s="2">
         <v>8</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>3102</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="G33" s="2">
         <v>500</v>
@@ -2046,16 +2594,16 @@
       <c r="I33" s="2">
         <v>7</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>128</v>
+      <c r="J33" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F15">
+  <sortState ref="A3:F15">
     <sortCondition ref="A5"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Item/ItemConfig.xlsx
+++ b/Tables/Sources/gameplay/Item/ItemConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="153">
   <si>
     <t>ID</t>
   </si>
@@ -464,9 +464,6 @@
   </si>
   <si>
     <t>集齐九位大师级工匠，以纯金打造，乃上乘宝物。</t>
-  </si>
-  <si>
-    <t>抗倭、押镖可获得</t>
   </si>
   <si>
     <t>DragonScales</t>
@@ -486,12 +483,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,44 +507,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,6 +543,29 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,30 +579,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,29 +604,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,9 +626,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,6 +639,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -679,181 +669,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,30 +872,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -917,17 +883,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,11 +917,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,10 +975,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,133 +987,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,7 +1125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1489,7 +1479,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2563,7 +2553,7 @@
         <v>8</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>149</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2571,19 +2561,19 @@
         <v>3102</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G33" s="2">
         <v>500</v>
@@ -2595,7 +2585,7 @@
         <v>7</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>149</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
